--- a/ESPN sports website/IPL/Gujarat Titans/Vijay Shankar.xlsx
+++ b/ESPN sports website/IPL/Gujarat Titans/Vijay Shankar.xlsx
@@ -445,10 +445,10 @@
         <v>Vijay Shankar</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>28.57</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17, 2022</v>
+        <v>April 14, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
+        <v>Titans won by 37 runs</v>
       </c>
     </row>
     <row r="3">
@@ -480,11 +480,11 @@
         <v>Vijay Shankar</v>
       </c>
       <c r="C3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
         <v>2</v>
       </c>
-      <c r="D3" t="str">
-        <v>7</v>
-      </c>
       <c r="E3" t="str">
         <v>0</v>
       </c>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>28.57</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>April 14, 2022</v>
+        <v>April 17, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 37 runs</v>
+        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
       </c>
     </row>
     <row r="4">
